--- a/test/testSheet.xlsx
+++ b/test/testSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gunn/Documents/ODE TO CODE/Java Script/bitsol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0AE3E13-4027-8A4C-A29B-777DC107044C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A39C31D-D83E-EC4C-8409-490598BA9F63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="3060" windowWidth="28040" windowHeight="17440" xr2:uid="{AC16D9B4-E07E-C54B-9CE0-9A0BD39EC884}"/>
+    <workbookView xWindow="19280" yWindow="9700" windowWidth="17500" windowHeight="13300" xr2:uid="{AC16D9B4-E07E-C54B-9CE0-9A0BD39EC884}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -432,7 +432,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
